--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -54,13 +54,100 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Display game board</t>
+  </si>
+  <si>
+    <t>Display "exit" button</t>
+  </si>
+  <si>
+    <t>Place all pawns on first tile</t>
+  </si>
+  <si>
+    <t>Display which player is playing the current turn</t>
+  </si>
+  <si>
+    <t>Change current player after the end of the turn</t>
+  </si>
+  <si>
+    <t>Show win screen if current player arrives to end tile and display name of winner</t>
+  </si>
+  <si>
+    <t>"Go back to menu" button is displayed in the win screen</t>
+  </si>
+  <si>
+    <t>Current player can pause and resume the game</t>
+  </si>
+  <si>
+    <t>Produce sound for throw of a dice / moving pawn / win screen / special actions</t>
+  </si>
+  <si>
+    <t>Display dice throw / moving pawn with an animation</t>
+  </si>
+  <si>
+    <t>Menu extended with "settings" button (for example, containing screen resolution, audio volume, …)</t>
+  </si>
+  <si>
+    <t>Possibility to select also computer players</t>
+  </si>
+  <si>
+    <t>Computer player is able to play the game</t>
+  </si>
+  <si>
+    <t>Add some humour to the computer player</t>
+  </si>
+  <si>
+    <t>Save current state of the game on a file</t>
+  </si>
+  <si>
+    <t>Load a previously saved game state</t>
+  </si>
+  <si>
+    <t>Make game playable by users sitting at different PCs (LAN multiplayer)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Execute special actions (for example, go back to tile 1) according to the tile on which the player arrive</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Menu or Turn</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
+    <t>Init and Turn</t>
+  </si>
+  <si>
+    <t>Turn</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Menu and Turn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,12 +161,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="20"/>
@@ -126,24 +207,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,81 +546,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="72.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Display menu screen on program start</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t>Current player can pause and resume the game</t>
-  </si>
-  <si>
-    <t>Produce sound for throw of a dice / moving pawn / win screen / special actions</t>
-  </si>
-  <si>
-    <t>Display dice throw / moving pawn with an animation</t>
   </si>
   <si>
     <t>Menu extended with "settings" button (for example, containing screen resolution, audio volume, …)</t>
@@ -207,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,6 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -549,7 +547,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -614,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,10 +626,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,10 +640,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -670,10 +668,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -695,13 +693,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -712,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -726,10 +724,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -740,10 +738,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -754,24 +752,24 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -781,25 +779,25 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>30</v>
+      <c r="C18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,11 +807,11 @@
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>30</v>
+      <c r="D19" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -823,11 +821,11 @@
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
+      <c r="C20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,11 +835,11 @@
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,40 +849,18 @@
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
-        <v>30</v>
+      <c r="D22" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
